--- a/online_translators/raw_data/questionnaire_size.xlsx
+++ b/online_translators/raw_data/questionnaire_size.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" tabRatio="823"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" tabRatio="823" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="csv_ru_en" sheetId="11" r:id="rId1"/>
+    <sheet name="csv_ru_it" sheetId="12" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
   <si>
     <t>sheet of paper</t>
   </si>
@@ -228,6 +229,114 @@
   </si>
   <si>
     <t>finger</t>
+  </si>
+  <si>
+    <t>foglio</t>
+  </si>
+  <si>
+    <t>слой</t>
+  </si>
+  <si>
+    <t>strate</t>
+  </si>
+  <si>
+    <t>tessuto</t>
+  </si>
+  <si>
+    <t>libro</t>
+  </si>
+  <si>
+    <t>parete</t>
+  </si>
+  <si>
+    <t>palo</t>
+  </si>
+  <si>
+    <t>tronco</t>
+  </si>
+  <si>
+    <t>ramo</t>
+  </si>
+  <si>
+    <t>bastone</t>
+  </si>
+  <si>
+    <t>corda</t>
+  </si>
+  <si>
+    <t>capelli</t>
+  </si>
+  <si>
+    <t>piffero</t>
+  </si>
+  <si>
+    <t>sabbia</t>
+  </si>
+  <si>
+    <t>nebbia</t>
+  </si>
+  <si>
+    <t>pioggia</t>
+  </si>
+  <si>
+    <t>zuppa</t>
+  </si>
+  <si>
+    <t>bosco</t>
+  </si>
+  <si>
+    <t>persona</t>
+  </si>
+  <si>
+    <t>mano</t>
+  </si>
+  <si>
+    <t>gamba</t>
+  </si>
+  <si>
+    <t>dito</t>
+  </si>
+  <si>
+    <t>fettuccia</t>
+  </si>
+  <si>
+    <t>asse</t>
+  </si>
+  <si>
+    <t>strada</t>
+  </si>
+  <si>
+    <t>finestra</t>
+  </si>
+  <si>
+    <t>campo</t>
+  </si>
+  <si>
+    <t>collo della bottiglia</t>
+  </si>
+  <si>
+    <t>corridoio</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>tubo</t>
+  </si>
+  <si>
+    <t>gonna</t>
+  </si>
+  <si>
+    <t>туфля</t>
+  </si>
+  <si>
+    <t>scarpe</t>
+  </si>
+  <si>
+    <t>stanza</t>
+  </si>
+  <si>
+    <t>letto</t>
   </si>
 </sst>
 </file>
@@ -259,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,11 +539,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="127">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
@@ -896,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -1185,4 +1303,295 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="18.140625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>